--- a/dailyreport_form.xlsx
+++ b/dailyreport_form.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspaces\workspaceNodeJS\dailyreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\workspaceNodeJS\dailyreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A4C170-FF37-40EC-A971-68A19466AB98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10005" yWindow="3810" windowWidth="16815" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10005" yWindow="3810" windowWidth="16815" windowHeight="11385"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PUMP01_MAX" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -103,7 +103,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -278,7 +281,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -309,7 +312,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -318,14 +324,14 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -342,6 +348,941 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR"/>
+              <a:t>PUMP01 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>전류최고</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-332C-4DD6-815D-D5D39B8B5692}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="626545360"/>
+        <c:axId val="626540368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="626545360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626540368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="626540368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="626545360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9306393" cy="6081947"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -640,21 +1581,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" customWidth="1"/>
-    <col min="3" max="3" width="4.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="6" style="2" customWidth="1"/>
-    <col min="5" max="17" width="4.25" style="2" customWidth="1"/>
-    <col min="18" max="29" width="4.25" customWidth="1"/>
+    <col min="5" max="17" width="4.375" style="2" customWidth="1"/>
+    <col min="18" max="29" width="4.375" customWidth="1"/>
     <col min="30" max="31" width="4.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -662,15 +1603,15 @@
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="11">
+      <c r="B1" s="12">
         <v>43800</v>
       </c>
-      <c r="C1" s="12"/>
+      <c r="C1" s="13"/>
       <c r="H1" s="1"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -683,7 +1624,7 @@
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -736,89 +1677,89 @@
       <c r="AC2" s="14"/>
     </row>
     <row r="3" spans="1:29" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="15" t="s">
+      <c r="O3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="P3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="Q3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="15" t="s">
+      <c r="S3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="15" t="s">
+      <c r="T3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="15" t="s">
+      <c r="U3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="15" t="s">
+      <c r="W3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="15" t="s">
+      <c r="X3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="15" t="s">
+      <c r="Y3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="15" t="s">
+      <c r="Z3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="15" t="s">
+      <c r="AA3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AB3" s="15" t="s">
+      <c r="AB3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="AC3" s="15" t="s">
+      <c r="AC3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -828,7 +1769,9 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -859,7 +1802,9 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+      <c r="F5" s="11">
+        <v>2</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -890,7 +1835,9 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="11">
+        <v>3</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -921,7 +1868,9 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="11">
+        <v>4</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -952,7 +1901,9 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="11">
+        <v>5</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -983,7 +1934,9 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="F9" s="11">
+        <v>6</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1014,7 +1967,9 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="11">
+        <v>7</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -1045,7 +2000,9 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="11">
+        <v>8</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1076,7 +2033,9 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="F12" s="11">
+        <v>9</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -1107,7 +2066,9 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="11">
+        <v>10</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1138,7 +2099,9 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="11">
+        <v>11</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -1169,7 +2132,9 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="11">
+        <v>12</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1200,7 +2165,9 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="11">
+        <v>13</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1231,7 +2198,9 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="11">
+        <v>14</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1262,7 +2231,9 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="11">
+        <v>15</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1293,7 +2264,9 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="11">
+        <v>16</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1324,7 +2297,9 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="11">
+        <v>17</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1355,7 +2330,9 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="11">
+        <v>18</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -1386,7 +2363,9 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="F22" s="11">
+        <v>19</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -1417,7 +2396,9 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="F23" s="11">
+        <v>20</v>
+      </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -1448,7 +2429,9 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="F24" s="11">
+        <v>21</v>
+      </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -1479,7 +2462,9 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="11">
+        <v>22</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -1510,7 +2495,9 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="F26" s="11">
+        <v>23</v>
+      </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -1541,7 +2528,9 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="11">
+        <v>24</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -1612,6 +2601,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
@@ -1620,11 +2614,6 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dailyreport_form.xlsx
+++ b/dailyreport_form.xlsx
@@ -12,8 +12,7 @@
     <workbookView xWindow="10005" yWindow="3810" windowWidth="16815" windowHeight="11385"/>
   </bookViews>
   <sheets>
-    <sheet name="PUMP01_MAX" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -318,19 +317,19 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -348,941 +347,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>PUMP01 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ko-KR" altLang="en-US"/>
-              <a:t>전류최고</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$4:$F$27</c:f>
-              <c:numCache>
-                <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-332C-4DD6-815D-D5D39B8B5692}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="626545360"/>
-        <c:axId val="626540368"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="626545360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="626540368"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="626540368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0_);[Red]\(0\)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="626545360"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9306393" cy="6081947"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1584,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC32"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1603,15 +667,15 @@
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12">
+      <c r="B1" s="14">
         <v>43800</v>
       </c>
-      <c r="C1" s="13"/>
+      <c r="C1" s="15"/>
       <c r="H1" s="1"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -1624,60 +688,60 @@
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="12"/>
+      <c r="D2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14" t="s">
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14" t="s">
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14" t="s">
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14" t="s">
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14" t="s">
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
     </row>
     <row r="3" spans="1:29" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
@@ -1769,9 +833,7 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="11">
-        <v>1</v>
-      </c>
+      <c r="F4" s="11"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -1802,9 +864,7 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="11">
-        <v>2</v>
-      </c>
+      <c r="F5" s="11"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -1835,9 +895,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="11">
-        <v>3</v>
-      </c>
+      <c r="F6" s="11"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1868,9 +926,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="11">
-        <v>4</v>
-      </c>
+      <c r="F7" s="11"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -1901,9 +957,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="11">
-        <v>5</v>
-      </c>
+      <c r="F8" s="11"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -1934,9 +988,7 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="11">
-        <v>6</v>
-      </c>
+      <c r="F9" s="11"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1967,9 +1019,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="11">
-        <v>7</v>
-      </c>
+      <c r="F10" s="11"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -2000,9 +1050,7 @@
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="11">
-        <v>8</v>
-      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -2033,9 +1081,7 @@
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="11">
-        <v>9</v>
-      </c>
+      <c r="F12" s="11"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -2066,9 +1112,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="11">
-        <v>10</v>
-      </c>
+      <c r="F13" s="11"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -2099,9 +1143,7 @@
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="11">
-        <v>11</v>
-      </c>
+      <c r="F14" s="11"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -2132,9 +1174,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="11">
-        <v>12</v>
-      </c>
+      <c r="F15" s="11"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -2165,9 +1205,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="11">
-        <v>13</v>
-      </c>
+      <c r="F16" s="11"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -2198,9 +1236,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="11">
-        <v>14</v>
-      </c>
+      <c r="F17" s="11"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -2231,9 +1267,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="11">
-        <v>15</v>
-      </c>
+      <c r="F18" s="11"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -2264,9 +1298,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="11">
-        <v>16</v>
-      </c>
+      <c r="F19" s="11"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -2297,9 +1329,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="11">
-        <v>17</v>
-      </c>
+      <c r="F20" s="11"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -2330,9 +1360,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="11">
-        <v>18</v>
-      </c>
+      <c r="F21" s="11"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -2363,9 +1391,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="11">
-        <v>19</v>
-      </c>
+      <c r="F22" s="11"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -2396,9 +1422,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="11">
-        <v>20</v>
-      </c>
+      <c r="F23" s="11"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -2429,9 +1453,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="11">
-        <v>21</v>
-      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -2462,9 +1484,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="11">
-        <v>22</v>
-      </c>
+      <c r="F25" s="11"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -2495,9 +1515,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="11">
-        <v>23</v>
-      </c>
+      <c r="F26" s="11"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -2528,9 +1546,7 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="11">
-        <v>24</v>
-      </c>
+      <c r="F27" s="11"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -2601,11 +1617,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
@@ -2614,6 +1625,11 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dailyreport_form.xlsx
+++ b/dailyreport_form.xlsx
@@ -317,19 +317,19 @@
     <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,15 +649,15 @@
   <dimension ref="A1:AC32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="4.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="6" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.875" style="2" customWidth="1"/>
     <col min="5" max="17" width="4.375" style="2" customWidth="1"/>
     <col min="18" max="29" width="4.375" customWidth="1"/>
     <col min="30" max="31" width="4.5" customWidth="1"/>
@@ -667,15 +667,15 @@
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14">
+      <c r="B1" s="12">
         <v>43800</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="13"/>
       <c r="H1" s="1"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -688,60 +688,60 @@
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12" t="s">
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12" t="s">
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12" t="s">
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12" t="s">
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12" t="s">
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
     </row>
     <row r="3" spans="1:29" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
+      <c r="A3" s="15"/>
       <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
@@ -1617,6 +1617,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="R1:S1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
@@ -1625,11 +1630,6 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dailyreport_form.xlsx
+++ b/dailyreport_form.xlsx
@@ -162,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -199,47 +199,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -274,13 +233,133 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -302,34 +381,58 @@
     <xf numFmtId="21" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -649,7 +752,7 @@
   <dimension ref="A1:AC32"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -667,15 +770,15 @@
       <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12">
+      <c r="B1" s="10">
         <v>43800</v>
       </c>
-      <c r="C1" s="13"/>
+      <c r="C1" s="11"/>
       <c r="H1" s="1"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
@@ -688,183 +791,183 @@
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14" t="s">
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14" t="s">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14" t="s">
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14" t="s">
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14" t="s">
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
     </row>
     <row r="3" spans="1:29" ht="22.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="U3" s="10" t="s">
+      <c r="U3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="10" t="s">
+      <c r="W3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="X3" s="10" t="s">
+      <c r="X3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="10" t="s">
+      <c r="Y3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="10" t="s">
+      <c r="Z3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="AA3" s="10" t="s">
+      <c r="AA3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="AB3" s="10" t="s">
+      <c r="AB3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="AC3" s="10" t="s">
+      <c r="AC3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="16"/>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
-      <c r="F5" s="11"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -887,15 +990,15 @@
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
       <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
+      <c r="AC5" s="19"/>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -918,15 +1021,15 @@
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
+      <c r="AC6" s="19"/>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="11"/>
+      <c r="F7" s="18"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -949,15 +1052,15 @@
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
+      <c r="AC7" s="19"/>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="11"/>
+      <c r="F8" s="18"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -980,15 +1083,15 @@
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
+      <c r="AC8" s="19"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -1011,15 +1114,15 @@
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
+      <c r="AC9" s="19"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="11"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -1042,15 +1145,15 @@
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
       <c r="AB10" s="6"/>
-      <c r="AC10" s="6"/>
+      <c r="AC10" s="19"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="11"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1073,15 +1176,15 @@
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
       <c r="AB11" s="6"/>
-      <c r="AC11" s="6"/>
+      <c r="AC11" s="19"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="11"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -1104,15 +1207,15 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="6"/>
-      <c r="AC12" s="6"/>
+      <c r="AC12" s="19"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="11"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1135,15 +1238,15 @@
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
+      <c r="AC13" s="19"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="11"/>
+      <c r="F14" s="18"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -1166,15 +1269,15 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
+      <c r="AC14" s="19"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="11"/>
+      <c r="F15" s="18"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1197,15 +1300,15 @@
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
+      <c r="AC15" s="19"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="11"/>
+      <c r="F16" s="18"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1228,15 +1331,15 @@
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="6"/>
-      <c r="AC16" s="6"/>
+      <c r="AC16" s="19"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="11"/>
+      <c r="F17" s="18"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1259,15 +1362,15 @@
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
       <c r="AB17" s="6"/>
-      <c r="AC17" s="6"/>
+      <c r="AC17" s="19"/>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="11"/>
+      <c r="F18" s="18"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1290,15 +1393,15 @@
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
       <c r="AB18" s="6"/>
-      <c r="AC18" s="6"/>
+      <c r="AC18" s="19"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="11"/>
+      <c r="F19" s="18"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1321,15 +1424,15 @@
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="6"/>
-      <c r="AC19" s="6"/>
+      <c r="AC19" s="19"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="11"/>
+      <c r="F20" s="18"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1352,15 +1455,15 @@
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
       <c r="AB20" s="6"/>
-      <c r="AC20" s="6"/>
+      <c r="AC20" s="19"/>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="11"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -1383,15 +1486,15 @@
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
       <c r="AB21" s="6"/>
-      <c r="AC21" s="6"/>
+      <c r="AC21" s="19"/>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="11"/>
+      <c r="F22" s="18"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -1414,15 +1517,15 @@
       <c r="Z22" s="6"/>
       <c r="AA22" s="6"/>
       <c r="AB22" s="6"/>
-      <c r="AC22" s="6"/>
+      <c r="AC22" s="19"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="11"/>
+      <c r="F23" s="18"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -1445,15 +1548,15 @@
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
       <c r="AB23" s="6"/>
-      <c r="AC23" s="6"/>
+      <c r="AC23" s="19"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -1476,15 +1579,15 @@
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
+      <c r="AC24" s="19"/>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A25" s="9"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="11"/>
+      <c r="F25" s="18"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -1507,15 +1610,15 @@
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
       <c r="AB25" s="6"/>
-      <c r="AC25" s="6"/>
+      <c r="AC25" s="19"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="11"/>
+      <c r="F26" s="18"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -1538,38 +1641,38 @@
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
       <c r="AB26" s="6"/>
-      <c r="AC26" s="6"/>
+      <c r="AC26" s="19"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="22"/>
+      <c r="X27" s="22"/>
+      <c r="Y27" s="22"/>
+      <c r="Z27" s="22"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="24"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="F28" s="4"/>
@@ -1617,11 +1720,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="R1:S1"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="O2:Q2"/>
@@ -1630,6 +1728,11 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="R1:S1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
